--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H2">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6458452496123041</v>
+        <v>0.686889</v>
       </c>
       <c r="N2">
-        <v>0.6458452496123041</v>
+        <v>2.060667</v>
       </c>
       <c r="O2">
-        <v>0.395010647780489</v>
+        <v>0.2801468581979037</v>
       </c>
       <c r="P2">
-        <v>0.395010647780489</v>
+        <v>0.2801468581979037</v>
       </c>
       <c r="Q2">
-        <v>121.5375365742856</v>
+        <v>139.975383861222</v>
       </c>
       <c r="R2">
-        <v>121.5375365742856</v>
+        <v>1259.778454750998</v>
       </c>
       <c r="S2">
-        <v>0.2571187229622349</v>
+        <v>0.186783087747169</v>
       </c>
       <c r="T2">
-        <v>0.2571187229622349</v>
+        <v>0.1867830877471691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H3">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.989161941310828</v>
+        <v>0.7012299999999999</v>
       </c>
       <c r="N3">
-        <v>0.989161941310828</v>
+        <v>2.10369</v>
       </c>
       <c r="O3">
-        <v>0.604989352219511</v>
+        <v>0.2859958179183478</v>
       </c>
       <c r="P3">
-        <v>0.604989352219511</v>
+        <v>0.2859958179183478</v>
       </c>
       <c r="Q3">
-        <v>186.1441354444016</v>
+        <v>142.8978167142066</v>
       </c>
       <c r="R3">
-        <v>186.1441354444016</v>
+        <v>1286.08035042786</v>
       </c>
       <c r="S3">
-        <v>0.3937972065372608</v>
+        <v>0.1906827808000235</v>
       </c>
       <c r="T3">
-        <v>0.3937972065372608</v>
+        <v>0.1906827808000235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.7965473472026</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H4">
-        <v>62.7965473472026</v>
+        <v>611.344994</v>
       </c>
       <c r="I4">
-        <v>0.217209445152696</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J4">
-        <v>0.217209445152696</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6458452496123041</v>
+        <v>1.06377</v>
       </c>
       <c r="N4">
-        <v>0.6458452496123041</v>
+        <v>3.19131</v>
       </c>
       <c r="O4">
-        <v>0.395010647780489</v>
+        <v>0.4338573238837485</v>
       </c>
       <c r="P4">
-        <v>0.395010647780489</v>
+        <v>0.4338573238837484</v>
       </c>
       <c r="Q4">
-        <v>40.55685179624493</v>
+        <v>216.77682142246</v>
       </c>
       <c r="R4">
-        <v>40.55685179624493</v>
+        <v>1950.99139280214</v>
       </c>
       <c r="S4">
-        <v>0.08580004363380705</v>
+        <v>0.2892668906516279</v>
       </c>
       <c r="T4">
-        <v>0.08580004363380705</v>
+        <v>0.2892668906516279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.989161941310828</v>
+        <v>0.686889</v>
       </c>
       <c r="N5">
-        <v>0.989161941310828</v>
+        <v>2.060667</v>
       </c>
       <c r="O5">
-        <v>0.604989352219511</v>
+        <v>0.2801468581979037</v>
       </c>
       <c r="P5">
-        <v>0.604989352219511</v>
+        <v>0.2801468581979037</v>
       </c>
       <c r="Q5">
-        <v>62.11595468157625</v>
+        <v>43.370576266584</v>
       </c>
       <c r="R5">
-        <v>62.11595468157625</v>
+        <v>390.335186399256</v>
       </c>
       <c r="S5">
-        <v>0.131409401518889</v>
+        <v>0.057873676992222</v>
       </c>
       <c r="T5">
-        <v>0.131409401518889</v>
+        <v>0.057873676992222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.125741487561</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
-        <v>38.125741487561</v>
+        <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J6">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6458452496123041</v>
+        <v>0.7012299999999999</v>
       </c>
       <c r="N6">
-        <v>0.6458452496123041</v>
+        <v>2.10369</v>
       </c>
       <c r="O6">
-        <v>0.395010647780489</v>
+        <v>0.2859958179183478</v>
       </c>
       <c r="P6">
-        <v>0.395010647780489</v>
+        <v>0.2859958179183478</v>
       </c>
       <c r="Q6">
-        <v>24.62332902768801</v>
+        <v>44.27607545821333</v>
       </c>
       <c r="R6">
-        <v>24.62332902768801</v>
+        <v>398.4846791239199</v>
       </c>
       <c r="S6">
-        <v>0.05209188118444705</v>
+        <v>0.05908197469642959</v>
       </c>
       <c r="T6">
-        <v>0.05209188118444705</v>
+        <v>0.0590819746964296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.125741487561</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
-        <v>38.125741487561</v>
+        <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J7">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.989161941310828</v>
+        <v>1.06377</v>
       </c>
       <c r="N7">
-        <v>0.989161941310828</v>
+        <v>3.19131</v>
       </c>
       <c r="O7">
-        <v>0.604989352219511</v>
+        <v>0.4338573238837485</v>
       </c>
       <c r="P7">
-        <v>0.604989352219511</v>
+        <v>0.4338573238837484</v>
       </c>
       <c r="Q7">
-        <v>37.71253246375061</v>
+        <v>67.16706471512001</v>
       </c>
       <c r="R7">
-        <v>37.71253246375061</v>
+        <v>604.50358243608</v>
       </c>
       <c r="S7">
-        <v>0.07978274416336126</v>
+        <v>0.0896277002165066</v>
       </c>
       <c r="T7">
-        <v>0.07978274416336126</v>
+        <v>0.08962770021650658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>38.719942</v>
+      </c>
+      <c r="H8">
+        <v>116.159826</v>
+      </c>
+      <c r="I8">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="J8">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.686889</v>
+      </c>
+      <c r="N8">
+        <v>2.060667</v>
+      </c>
+      <c r="O8">
+        <v>0.2801468581979037</v>
+      </c>
+      <c r="P8">
+        <v>0.2801468581979037</v>
+      </c>
+      <c r="Q8">
+        <v>26.596302240438</v>
+      </c>
+      <c r="R8">
+        <v>239.366720163942</v>
+      </c>
+      <c r="S8">
+        <v>0.0354900934585127</v>
+      </c>
+      <c r="T8">
+        <v>0.03549009345851271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>38.719942</v>
+      </c>
+      <c r="H9">
+        <v>116.159826</v>
+      </c>
+      <c r="I9">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="J9">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.7012299999999999</v>
+      </c>
+      <c r="N9">
+        <v>2.10369</v>
+      </c>
+      <c r="O9">
+        <v>0.2859958179183478</v>
+      </c>
+      <c r="P9">
+        <v>0.2859958179183478</v>
+      </c>
+      <c r="Q9">
+        <v>27.15158492865999</v>
+      </c>
+      <c r="R9">
+        <v>244.36426435794</v>
+      </c>
+      <c r="S9">
+        <v>0.03623106242189474</v>
+      </c>
+      <c r="T9">
+        <v>0.03623106242189475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>38.719942</v>
+      </c>
+      <c r="H10">
+        <v>116.159826</v>
+      </c>
+      <c r="I10">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="J10">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.06377</v>
+      </c>
+      <c r="N10">
+        <v>3.19131</v>
+      </c>
+      <c r="O10">
+        <v>0.4338573238837485</v>
+      </c>
+      <c r="P10">
+        <v>0.4338573238837484</v>
+      </c>
+      <c r="Q10">
+        <v>41.18911270134</v>
+      </c>
+      <c r="R10">
+        <v>370.70201431206</v>
+      </c>
+      <c r="S10">
+        <v>0.05496273301561396</v>
+      </c>
+      <c r="T10">
+        <v>0.05496273301561396</v>
       </c>
     </row>
   </sheetData>
